--- a/Parbaude.xlsx
+++ b/Parbaude.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199F4B7-D971-435A-A04B-06DD02C98842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4B467-2ABF-4F32-9ED0-FDA010E4A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TF-IDF_parbaude" sheetId="1" r:id="rId1"/>
-    <sheet name="Lapa1" sheetId="2" r:id="rId2"/>
+    <sheet name="MF_parbaude" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>Žanri/Filma</t>
   </si>
@@ -140,14 +140,160 @@
   </si>
   <si>
     <t>Redzams, ka visi vektori ir vienādi ,līdz ar to kosinusa līdzība ir 1</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>movieId</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>L��on: The Professional (a.k.a. The Professional) (L��on) (1994)</t>
+  </si>
+  <si>
+    <t>Action|Crime|Drama|Thriller</t>
+  </si>
+  <si>
+    <t>Pulp Fiction (1994)</t>
+  </si>
+  <si>
+    <t>Comedy|Crime|Drama|Thriller</t>
+  </si>
+  <si>
+    <t>Shawshank Redemption, The (1994)</t>
+  </si>
+  <si>
+    <t>Crime|Drama</t>
+  </si>
+  <si>
+    <t>Forrest Gump (1994)</t>
+  </si>
+  <si>
+    <t>Comedy|Drama|Romance|War</t>
+  </si>
+  <si>
+    <t>Back to the Future (1985)</t>
+  </si>
+  <si>
+    <t>Adventure|Comedy|Sci-Fi</t>
+  </si>
+  <si>
+    <t>Fifth Element, The (1997)</t>
+  </si>
+  <si>
+    <t>Action|Adventure|Comedy|Sci-Fi</t>
+  </si>
+  <si>
+    <t>Saving Private Ryan (1998)</t>
+  </si>
+  <si>
+    <t>Action|Drama|War</t>
+  </si>
+  <si>
+    <t>Matrix, The (1999)</t>
+  </si>
+  <si>
+    <t>Action|Sci-Fi|Thriller</t>
+  </si>
+  <si>
+    <t>Fight Club (1999)</t>
+  </si>
+  <si>
+    <t>Snatch (2000)</t>
+  </si>
+  <si>
+    <t>Comedy|Crime|Thriller</t>
+  </si>
+  <si>
+    <t>Last Castle, The (2001)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl (2003)</t>
+  </si>
+  <si>
+    <t>Action|Adventure|Comedy|Fantasy</t>
+  </si>
+  <si>
+    <t>Taxi (1998)</t>
+  </si>
+  <si>
+    <t>Action|Comedy</t>
+  </si>
+  <si>
+    <t>Taxi 3 (2003)</t>
+  </si>
+  <si>
+    <t>Taxi 2 (2000)</t>
+  </si>
+  <si>
+    <t>Paths of Glory (1957)</t>
+  </si>
+  <si>
+    <t>Drama|War</t>
+  </si>
+  <si>
+    <t>Ran (1985)</t>
+  </si>
+  <si>
+    <t>Life Is Beautiful (La Vita �� bella) (1997)</t>
+  </si>
+  <si>
+    <t>Guess Who's Coming to Dinner (1967)</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Šo filmu attiecīgie nosaukumi un žanri no movies.csv</t>
+  </si>
+  <si>
+    <t>Filmas, kuras lietotājs novērtējis ar augstu vērtējumu no ratings.csv</t>
+  </si>
+  <si>
+    <t>Ieteiktās filmas</t>
+  </si>
+  <si>
+    <t>Visi filmas Paths of Glory (1957) vērtējumi</t>
+  </si>
+  <si>
+    <t>Visi filmas Ran (1985) vērtējumi</t>
+  </si>
+  <si>
+    <t>Visi filmas Life Is Beautiful (La Vita    bella) (1997) vērtējumi</t>
+  </si>
+  <si>
+    <t>Visi filmas Guess Who's Coming to Dinner (1967) vērtējumi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -195,25 +341,306 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -224,6 +651,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9F4B831-5507-4E56-A99B-C21D3C569683}" name="Tabula3" displayName="Tabula3" ref="A2:G7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A2:G7" xr:uid="{D9F4B831-5507-4E56-A99B-C21D3C569683}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9E4CF165-9FF0-421D-AF53-13EBF4603A13}" name="Žanri/Filma" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6018BA2D-F8FB-469E-8967-1420EAB2C8CE}" name="Toy Story" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{496E9463-BB61-42E6-841C-B3E7CD1FB583}" name="Antz" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0FD51A33-08DF-4C5F-81EB-07927342E3E1}" name="Toy Story 2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{992F4742-1ADC-492A-A336-A830C947E95C}" name="Adventures of Rocky and Bullwinkle, The (2000)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A79ACFF6-C739-4586-A1C4-DA5CC7973ED9}" name="Monsters, Inc. (2001)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{87BD6705-E1CE-403E-B334-FB1FDF7F7BD6}" name="Wild, The (2006)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A82FBCC-023A-497E-980B-BD5CFF89AC0A}" name="Tabula4" displayName="Tabula4" ref="L3:R8" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D6A02F8E-6F7E-4938-AE0F-A64FC02398EF}" name="Kolonna1"/>
+    <tableColumn id="2" xr3:uid="{6CD5F9FB-29EF-4114-B9EA-6DBEBE433F54}" name="Kolonna2"/>
+    <tableColumn id="3" xr3:uid="{762AC09F-A8CC-48DF-A8FE-86A5B2071DF5}" name="Kolonna3"/>
+    <tableColumn id="4" xr3:uid="{65607B0B-8AD9-490D-BCE8-1157A73BB8E7}" name="Kolonna4"/>
+    <tableColumn id="5" xr3:uid="{E566ABEF-5D13-4043-8AA0-3156B89E2F77}" name="Kolonna5"/>
+    <tableColumn id="6" xr3:uid="{1A5FF075-2C0A-4087-8E16-4A2BA9F31CD9}" name="Kolonna6"/>
+    <tableColumn id="7" xr3:uid="{E1134D12-190C-4953-A12D-DBB627F1C247}" name="Kolonna7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6E9FB7E-6DBC-454C-B041-4DFFF7B30479}" name="Tabula1" displayName="Tabula1" ref="A2:D17" totalsRowShown="0">
+  <autoFilter ref="A2:D17" xr:uid="{C6E9FB7E-6DBC-454C-B041-4DFFF7B30479}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1C623042-8119-4ED9-B7AA-2D34F63D79DD}" name="userId"/>
+    <tableColumn id="2" xr3:uid="{7F154756-C37C-4979-9D41-A94A92E25796}" name="movieId"/>
+    <tableColumn id="3" xr3:uid="{9E5D9BDA-F4FF-4076-8709-01103CA028AB}" name="rating"/>
+    <tableColumn id="4" xr3:uid="{A7723D7D-A882-450D-9A9A-9A3722A8AAE0}" name="timestamp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB6E72EB-B5C1-49C9-8F8A-5FF02BFC702C}" name="Tabula2" displayName="Tabula2" ref="F2:H17" totalsRowShown="0">
+  <autoFilter ref="F2:H17" xr:uid="{DB6E72EB-B5C1-49C9-8F8A-5FF02BFC702C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D3E63018-144C-4CB4-A0C2-115307050829}" name="movieId"/>
+    <tableColumn id="2" xr3:uid="{D48E0B14-B2E1-417F-9638-C6A3C6B8B17F}" name="title"/>
+    <tableColumn id="3" xr3:uid="{E5082D21-2F15-454C-AA23-EF95179EBA04}" name="genres"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1924FCB7-DBC0-47DC-8744-DF13DAF4981E}" name="Tabula7" displayName="Tabula7" ref="A21:C25" totalsRowShown="0">
+  <autoFilter ref="A21:C25" xr:uid="{1924FCB7-DBC0-47DC-8744-DF13DAF4981E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{464D2A2F-418F-4EF0-9950-54B1EEC1CF51}" name="movieId"/>
+    <tableColumn id="2" xr3:uid="{56DF88A9-4137-469E-AD25-3AE663B31462}" name="title"/>
+    <tableColumn id="3" xr3:uid="{C4F16BF5-DD63-4913-8B11-74EC3609EF5E}" name="genres"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{72EEAF0F-7B81-4974-B3E6-09AF917CBC11}" name="Tabula8" displayName="Tabula8" ref="A28:D36" totalsRowShown="0">
+  <autoFilter ref="A28:D36" xr:uid="{72EEAF0F-7B81-4974-B3E6-09AF917CBC11}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{72535AA2-83E0-4F57-9AF8-FF4965D7859B}" name="userId"/>
+    <tableColumn id="2" xr3:uid="{A4A31083-F7A1-45BA-B177-748CAF6FE40C}" name="movieId"/>
+    <tableColumn id="3" xr3:uid="{CD3ADAE1-1EA5-4031-B332-06941B69633B}" name="rating"/>
+    <tableColumn id="4" xr3:uid="{C4F11DEA-AB7F-496B-8547-28A8508B1987}" name="timestamp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3E936CBC-2EF9-4FB8-A3C1-FC4ADE240B6D}" name="Tabula9" displayName="Tabula9" ref="A39:D46" totalsRowShown="0">
+  <autoFilter ref="A39:D46" xr:uid="{3E936CBC-2EF9-4FB8-A3C1-FC4ADE240B6D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C9562AD6-6A99-409C-B344-68E5A206C656}" name="userId"/>
+    <tableColumn id="2" xr3:uid="{058D801C-5477-41AE-9892-D0FE47895DC1}" name="movieId"/>
+    <tableColumn id="3" xr3:uid="{471324B7-BE90-49B8-A3F1-36411B50D0C1}" name="rating"/>
+    <tableColumn id="4" xr3:uid="{55797B46-F034-49B0-B9D0-2EE099339981}" name="timestamp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{231C4B01-928D-4044-9507-BC6FA20DC6EB}" name="Tabula10" displayName="Tabula10" ref="F28:I77" totalsRowShown="0">
+  <autoFilter ref="F28:I77" xr:uid="{231C4B01-928D-4044-9507-BC6FA20DC6EB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{73F4C43F-F869-4F1F-AA06-E5ABB414DFB1}" name="userId"/>
+    <tableColumn id="2" xr3:uid="{021E79C4-8871-4DB2-A3A9-15460E921E91}" name="movieId"/>
+    <tableColumn id="3" xr3:uid="{065C0BFE-5C94-42FB-B776-683A6D2B4BAB}" name="rating"/>
+    <tableColumn id="4" xr3:uid="{245C5224-5363-4E68-847C-800691275967}" name="timestamp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C7590605-4D24-45F3-9590-9BA2B769909C}" name="Tabula11" displayName="Tabula11" ref="A50:D58" totalsRowShown="0">
+  <autoFilter ref="A50:D58" xr:uid="{C7590605-4D24-45F3-9590-9BA2B769909C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D4071719-9889-4A6B-955A-D0DA7DE69A08}" name="userId"/>
+    <tableColumn id="2" xr3:uid="{92066DFE-D4C8-49CD-B980-719DA694B7FC}" name="movieId"/>
+    <tableColumn id="3" xr3:uid="{136FDB38-F302-4618-A446-78E24A4D6881}" name="rating"/>
+    <tableColumn id="4" xr3:uid="{1A0C7D47-D079-4C03-A904-A0C33F9C7749}" name="timestamp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,377 +1038,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.109375" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
     <col min="13" max="13" width="44.21875" customWidth="1"/>
+    <col min="14" max="18" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" cm="1">
+      <c r="B12" s="1" cm="1">
         <f t="array" ref="B12:G16">LOG10(B3:G7)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3"/>
@@ -869,178 +1419,172 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f>B3*B12</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f>C3*C12</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f>D3</f>
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f>D3*D12</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f>E3*E12</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f>F3</f>
         <v>1</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f>F3*F12</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <f>G3</f>
         <v>1</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f>G3*G12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1052,17 +1596,1538 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ECAB08-0105-4C4B-8D58-1D1C6468A525}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>293</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1501273898</v>
+      </c>
+      <c r="F3">
+        <v>293</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>296</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4">
+        <v>1501273753</v>
+      </c>
+      <c r="F4">
+        <v>296</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>318</v>
+      </c>
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
+        <v>1501274024</v>
+      </c>
+      <c r="F5">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>356</v>
+      </c>
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="D6">
+        <v>1501274064</v>
+      </c>
+      <c r="F6">
+        <v>356</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>1270</v>
+      </c>
+      <c r="C7">
+        <v>4.5</v>
+      </c>
+      <c r="D7">
+        <v>1501273836</v>
+      </c>
+      <c r="F7">
+        <v>1270</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>1527</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1501273646</v>
+      </c>
+      <c r="F8">
+        <v>1527</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>2028</v>
+      </c>
+      <c r="C9">
+        <v>4.5</v>
+      </c>
+      <c r="D9">
+        <v>1501273553</v>
+      </c>
+      <c r="F9">
+        <v>2028</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>2571</v>
+      </c>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10">
+        <v>1501273541</v>
+      </c>
+      <c r="F10">
+        <v>2571</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>2959</v>
+      </c>
+      <c r="C11">
+        <v>4.5</v>
+      </c>
+      <c r="D11">
+        <v>1501273544</v>
+      </c>
+      <c r="F11">
+        <v>2959</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>67</v>
+      </c>
+      <c r="B12">
+        <v>4011</v>
+      </c>
+      <c r="C12">
+        <v>4.5</v>
+      </c>
+      <c r="D12">
+        <v>1501273607</v>
+      </c>
+      <c r="F12">
+        <v>4011</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>4886</v>
+      </c>
+      <c r="C13">
+        <v>4.5</v>
+      </c>
+      <c r="D13">
+        <v>1501273889</v>
+      </c>
+      <c r="F13">
+        <v>4866</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>6539</v>
+      </c>
+      <c r="C14">
+        <v>4.5</v>
+      </c>
+      <c r="D14">
+        <v>1501273908</v>
+      </c>
+      <c r="F14">
+        <v>6539</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>8604</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1501273663</v>
+      </c>
+      <c r="F15">
+        <v>8604</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>8605</v>
+      </c>
+      <c r="C16">
+        <v>4.5</v>
+      </c>
+      <c r="D16">
+        <v>1501273672</v>
+      </c>
+      <c r="F16">
+        <v>8605</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>27193</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1501273671</v>
+      </c>
+      <c r="F17">
+        <v>27193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2324</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3451</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>199</v>
+      </c>
+      <c r="B29">
+        <v>1178</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>940380424</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>2324</v>
+      </c>
+      <c r="H29">
+        <v>4.5</v>
+      </c>
+      <c r="I29">
+        <v>1475001075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>305</v>
+      </c>
+      <c r="B30">
+        <v>1178</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1516130775</v>
+      </c>
+      <c r="F30">
+        <v>45</v>
+      </c>
+      <c r="G30">
+        <v>2324</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>1007483928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>312</v>
+      </c>
+      <c r="B31">
+        <v>1178</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1043177080</v>
+      </c>
+      <c r="F31">
+        <v>57</v>
+      </c>
+      <c r="G31">
+        <v>2324</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>965796969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>339</v>
+      </c>
+      <c r="B32">
+        <v>1178</v>
+      </c>
+      <c r="C32">
+        <v>4.5</v>
+      </c>
+      <c r="D32">
+        <v>1460868619</v>
+      </c>
+      <c r="F32">
+        <v>89</v>
+      </c>
+      <c r="G32">
+        <v>2324</v>
+      </c>
+      <c r="H32">
+        <v>4.5</v>
+      </c>
+      <c r="I32">
+        <v>1520408266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>391</v>
+      </c>
+      <c r="B33">
+        <v>1178</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1030827723</v>
+      </c>
+      <c r="F33">
+        <v>119</v>
+      </c>
+      <c r="G33">
+        <v>2324</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>1435943985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>421</v>
+      </c>
+      <c r="B34">
+        <v>1178</v>
+      </c>
+      <c r="C34">
+        <v>4.5</v>
+      </c>
+      <c r="D34">
+        <v>1311495271</v>
+      </c>
+      <c r="F34">
+        <v>160</v>
+      </c>
+      <c r="G34">
+        <v>2324</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>971113296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>469</v>
+      </c>
+      <c r="B35">
+        <v>1178</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>965661977</v>
+      </c>
+      <c r="F35">
+        <v>166</v>
+      </c>
+      <c r="G35">
+        <v>2324</v>
+      </c>
+      <c r="H35">
+        <v>4.5</v>
+      </c>
+      <c r="I35">
+        <v>1189038292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>599</v>
+      </c>
+      <c r="B36">
+        <v>1178</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1519029292</v>
+      </c>
+      <c r="F36">
+        <v>190</v>
+      </c>
+      <c r="G36">
+        <v>2324</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>1504309959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>198</v>
+      </c>
+      <c r="G37">
+        <v>2324</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1034136119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38">
+        <v>201</v>
+      </c>
+      <c r="G38">
+        <v>2324</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>939226492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>215</v>
+      </c>
+      <c r="G39">
+        <v>2324</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1260908640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>1217</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1161531086</v>
+      </c>
+      <c r="F40">
+        <v>241</v>
+      </c>
+      <c r="G40">
+        <v>2324</v>
+      </c>
+      <c r="H40">
+        <v>4.5</v>
+      </c>
+      <c r="I40">
+        <v>1447536021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>1217</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1099188036</v>
+      </c>
+      <c r="F41">
+        <v>253</v>
+      </c>
+      <c r="G41">
+        <v>2324</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>1286645292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>156</v>
+      </c>
+      <c r="B42">
+        <v>1217</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>946799037</v>
+      </c>
+      <c r="F42">
+        <v>263</v>
+      </c>
+      <c r="G42">
+        <v>2324</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>1120071512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>199</v>
+      </c>
+      <c r="B43">
+        <v>1217</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>940381382</v>
+      </c>
+      <c r="F43">
+        <v>275</v>
+      </c>
+      <c r="G43">
+        <v>2324</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>1049076484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>325</v>
+      </c>
+      <c r="B44">
+        <v>1217</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1039396324</v>
+      </c>
+      <c r="F44">
+        <v>296</v>
+      </c>
+      <c r="G44">
+        <v>2324</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>1532993836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>390</v>
+      </c>
+      <c r="B45">
+        <v>1217</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>1250335792</v>
+      </c>
+      <c r="F45">
+        <v>300</v>
+      </c>
+      <c r="G45">
+        <v>2324</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>1425351454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>414</v>
+      </c>
+      <c r="B46">
+        <v>1217</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>961512311</v>
+      </c>
+      <c r="F46">
+        <v>305</v>
+      </c>
+      <c r="G46">
+        <v>2324</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>1460135273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>309</v>
+      </c>
+      <c r="G47">
+        <v>2324</v>
+      </c>
+      <c r="H47">
+        <v>4.5</v>
+      </c>
+      <c r="I47">
+        <v>1126452366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>317</v>
+      </c>
+      <c r="G48">
+        <v>2324</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>1430366063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="F49">
+        <v>326</v>
+      </c>
+      <c r="G49">
+        <v>2324</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>1324234902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>330</v>
+      </c>
+      <c r="G50">
+        <v>2324</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>1285904320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>3451</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>965149512</v>
+      </c>
+      <c r="F51">
+        <v>336</v>
+      </c>
+      <c r="G51">
+        <v>2324</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>1122227453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>113</v>
+      </c>
+      <c r="B52">
+        <v>3451</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>980307165</v>
+      </c>
+      <c r="F52">
+        <v>339</v>
+      </c>
+      <c r="G52">
+        <v>2324</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>1460519159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>177</v>
+      </c>
+      <c r="B53">
+        <v>3451</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1435720892</v>
+      </c>
+      <c r="F53">
+        <v>348</v>
+      </c>
+      <c r="G53">
+        <v>2324</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>1378850284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>474</v>
+      </c>
+      <c r="B54">
+        <v>3451</v>
+      </c>
+      <c r="C54">
+        <v>4.5</v>
+      </c>
+      <c r="D54">
+        <v>1100119928</v>
+      </c>
+      <c r="F54">
+        <v>352</v>
+      </c>
+      <c r="G54">
+        <v>2324</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>1493932019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>488</v>
+      </c>
+      <c r="B55">
+        <v>3451</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>1112382152</v>
+      </c>
+      <c r="F55">
+        <v>354</v>
+      </c>
+      <c r="G55">
+        <v>2324</v>
+      </c>
+      <c r="H55">
+        <v>4.5</v>
+      </c>
+      <c r="I55">
+        <v>1200870723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>587</v>
+      </c>
+      <c r="B56">
+        <v>3451</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>953137416</v>
+      </c>
+      <c r="F56">
+        <v>359</v>
+      </c>
+      <c r="G56">
+        <v>2324</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>1198113117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>590</v>
+      </c>
+      <c r="B57">
+        <v>3451</v>
+      </c>
+      <c r="C57">
+        <v>4.5</v>
+      </c>
+      <c r="D57">
+        <v>1264194102</v>
+      </c>
+      <c r="F57">
+        <v>383</v>
+      </c>
+      <c r="G57">
+        <v>2324</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>943569630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>606</v>
+      </c>
+      <c r="B58">
+        <v>3451</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>1171377657</v>
+      </c>
+      <c r="F58">
+        <v>421</v>
+      </c>
+      <c r="G58">
+        <v>2324</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>1311501622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>445</v>
+      </c>
+      <c r="G59">
+        <v>2324</v>
+      </c>
+      <c r="H59">
+        <v>4.5</v>
+      </c>
+      <c r="I59">
+        <v>1454622086</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>453</v>
+      </c>
+      <c r="G60">
+        <v>2324</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>972622713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>467</v>
+      </c>
+      <c r="G61">
+        <v>2324</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>919670453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>471</v>
+      </c>
+      <c r="G62">
+        <v>2324</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>1496668940</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>474</v>
+      </c>
+      <c r="G63">
+        <v>2324</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>978575620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>477</v>
+      </c>
+      <c r="G64">
+        <v>2324</v>
+      </c>
+      <c r="H64">
+        <v>4.5</v>
+      </c>
+      <c r="I64">
+        <v>1200941935</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>483</v>
+      </c>
+      <c r="G65">
+        <v>2324</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>1178294039</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>488</v>
+      </c>
+      <c r="G66">
+        <v>2324</v>
+      </c>
+      <c r="H66">
+        <v>4.5</v>
+      </c>
+      <c r="I66">
+        <v>1112382241</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>497</v>
+      </c>
+      <c r="G67">
+        <v>2324</v>
+      </c>
+      <c r="H67">
+        <v>4.5</v>
+      </c>
+      <c r="I67">
+        <v>1429127147</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>511</v>
+      </c>
+      <c r="G68">
+        <v>2324</v>
+      </c>
+      <c r="H68">
+        <v>4.5</v>
+      </c>
+      <c r="I68">
+        <v>1450094208</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>526</v>
+      </c>
+      <c r="G69">
+        <v>2324</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>1502131848</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>534</v>
+      </c>
+      <c r="G70">
+        <v>2324</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>1459787996</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>551</v>
+      </c>
+      <c r="G71">
+        <v>2324</v>
+      </c>
+      <c r="H71">
+        <v>4.5</v>
+      </c>
+      <c r="I71">
+        <v>1504925161</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>554</v>
+      </c>
+      <c r="G72">
+        <v>2324</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>944898992</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>581</v>
+      </c>
+      <c r="G73">
+        <v>2324</v>
+      </c>
+      <c r="H73">
+        <v>4.5</v>
+      </c>
+      <c r="I73">
+        <v>1447007086</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>587</v>
+      </c>
+      <c r="G74">
+        <v>2324</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>953137813</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>600</v>
+      </c>
+      <c r="G75">
+        <v>2324</v>
+      </c>
+      <c r="H75">
+        <v>4.5</v>
+      </c>
+      <c r="I75">
+        <v>1237713239</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>601</v>
+      </c>
+      <c r="G76">
+        <v>2324</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>1521397611</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>606</v>
+      </c>
+      <c r="G77">
+        <v>2324</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>1171311393</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Parbaude.xlsx
+++ b/Parbaude.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3E0BD-AC61-4395-941F-D6D0D86CA71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BB71B-5085-4534-9CA3-BB10D2C16A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TF-IDF_parbaude" sheetId="1" r:id="rId1"/>
     <sheet name="MF_parbaude" sheetId="2" r:id="rId2"/>
+    <sheet name="Hybrid_parbaude" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>Žanri/Filma</t>
   </si>
@@ -248,6 +249,39 @@
   </si>
   <si>
     <t>Lietotāja ar ID 67 novērtēšanas metriku aprēķins</t>
+  </si>
+  <si>
+    <t>Shawshank Redemption, The (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fargo (1996)</t>
+  </si>
+  <si>
+    <t>Eat Drink Man Woman (Yin shi nan nu) (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clear and Present Danger (1994)</t>
+  </si>
+  <si>
+    <t>Quiz Show (1994)</t>
+  </si>
+  <si>
+    <t>Braveheart (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Batman (1989)</t>
+  </si>
+  <si>
+    <t>Fugitive, The (1993)</t>
+  </si>
+  <si>
+    <t>Like Water for Chocolate (Como agua para chocolate) (1992)</t>
+  </si>
+  <si>
+    <t>Lietotāja ar ID 5 ieteikumi, faktiskais vērtējums un prognozētais</t>
+  </si>
+  <si>
+    <t>Absoulūtā kļūda</t>
   </si>
 </sst>
 </file>
@@ -303,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -457,11 +491,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -472,6 +524,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,35 +565,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,15 +1067,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1219,15 +1270,15 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1369,12 +1420,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1493,10 +1544,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1552,213 +1603,213 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="12">
         <v>19</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>1</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="12">
         <v>19</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="12">
         <v>2294</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="12">
         <v>19</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="12">
         <v>3114</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
-        <v>220</v>
-      </c>
-      <c r="B41" s="19">
+      <c r="A41" s="13">
+        <v>220</v>
+      </c>
+      <c r="B41" s="13">
         <v>1</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
-        <v>220</v>
-      </c>
-      <c r="B42" s="19">
+      <c r="A42" s="13">
+        <v>220</v>
+      </c>
+      <c r="B42" s="13">
         <v>2294</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
-        <v>220</v>
-      </c>
-      <c r="B43" s="19">
+      <c r="A43" s="13">
+        <v>220</v>
+      </c>
+      <c r="B43" s="13">
         <v>3114</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
-        <v>220</v>
-      </c>
-      <c r="B44" s="19">
+      <c r="A44" s="13">
+        <v>220</v>
+      </c>
+      <c r="B44" s="13">
         <v>4886</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="13">
         <v>608</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="13">
         <v>1</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+      <c r="A46" s="13">
         <v>608</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="13">
         <v>2294</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="13">
         <v>608</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="13">
         <v>3114</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="13">
         <v>2.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
+      <c r="A48" s="13">
         <v>608</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="13">
         <v>4016</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="A49" s="13">
         <v>608</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="13">
         <v>4886</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="13">
         <f>COUNT(A61:A201)</f>
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="13">
         <f>B53/B52</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="13">
         <f>B53/B54</f>
         <v>1.4184397163120567E-2</v>
       </c>
-      <c r="D56" s="20"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="13">
         <f>(B55*B56*2)/(B55+B56)</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -3768,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ECAB08-0105-4C4B-8D58-1D1C6468A525}">
   <dimension ref="A2:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3786,46 +3837,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>2329</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="16">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
       <c r="E4">
@@ -3838,16 +3889,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>2959</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>4.37</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <v>4.5</v>
       </c>
       <c r="E5">
@@ -3860,16 +3911,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>68157</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="16">
         <v>4.3600000000000003</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="16">
         <v>4</v>
       </c>
       <c r="E6">
@@ -3882,16 +3933,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>2571</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="16">
         <v>4.5</v>
       </c>
       <c r="E7">
@@ -3904,16 +3955,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>60069</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="16">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="16">
         <v>3.5</v>
       </c>
       <c r="E8">
@@ -3926,16 +3977,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>4993</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="16">
         <v>4.25</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="16">
         <v>2</v>
       </c>
       <c r="E9">
@@ -3948,16 +3999,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>2858</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="16">
         <v>4.25</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="16">
         <v>4</v>
       </c>
       <c r="E10">
@@ -3970,16 +4021,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="16">
         <v>79132</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="16">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="16">
         <v>4</v>
       </c>
       <c r="E11">
@@ -3992,16 +4043,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="16">
         <v>5952</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="16">
         <v>4.21</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="16">
         <v>2</v>
       </c>
       <c r="E12">
@@ -4014,16 +4065,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="16">
         <v>4306</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="16">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="16">
         <v>3.5</v>
       </c>
       <c r="E13">
@@ -4036,7 +4087,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="11"/>
       <c r="E14" t="s">
         <v>34</v>
       </c>
@@ -4053,29 +4104,29 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="1">
@@ -4084,7 +4135,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="1">
@@ -4093,7 +4144,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1">
@@ -4102,7 +4153,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="1">
@@ -4111,12 +4162,12 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -4574,4 +4625,329 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6942D0E-2EF8-49EE-AA26-F57157487651}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>3.9458859999999998</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>C3-D3</f>
+        <v>0.94588599999999978</v>
+      </c>
+      <c r="G3">
+        <f>ABS(F3)</f>
+        <v>0.94588599999999978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>3.8482889999999998</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">C4-D4</f>
+        <v>0.84828899999999985</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="1">ABS(F4)</f>
+        <v>0.84828899999999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>3.4996049999999999</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-0.50039500000000015</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.50039500000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>3.3838889999999999</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.38388899999999992</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.38388899999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>3.3696139999999999</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.36961399999999989</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.36961399999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>3.3638970000000001</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.36389700000000014</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.36389700000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>3.1441789999999998</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-0.85582100000000016</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.85582100000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>592</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>3.0825200000000001</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>8.2520000000000149E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8.2520000000000149E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>3.05437</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-0.94562999999999997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.94562999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(G3:G11)</f>
+        <v>0.58843788888888882</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <f>G12^2</f>
+        <v>0.34625914908001226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="18">
+        <f>COUNT(A3:A11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C15/C14</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15/C16</f>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <f>(2*C17*C18)/(C17+C18)</f>
+        <v>0.18750000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Parbaude.xlsx
+++ b/Parbaude.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BB71B-5085-4534-9CA3-BB10D2C16A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE30ABE-5DFB-4875-A488-D0BFDFEAC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TF-IDF_parbaude" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>Žanri/Filma</t>
   </si>
@@ -282,13 +282,19 @@
   </si>
   <si>
     <t>Absoulūtā kļūda</t>
+  </si>
+  <si>
+    <t>Kvadrātā</t>
+  </si>
+  <si>
+    <t>Vērtības</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +333,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -547,6 +564,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,14 +591,316 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -754,23 +1079,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9F4B831-5507-4E56-A99B-C21D3C569683}" name="Tabula3" displayName="Tabula3" ref="A2:G7" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A2:G7" xr:uid="{D9F4B831-5507-4E56-A99B-C21D3C569683}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9F4B831-5507-4E56-A99B-C21D3C569683}" name="Tabula3" displayName="Tabula3" ref="B2:H7" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="B2:H7" xr:uid="{D9F4B831-5507-4E56-A99B-C21D3C569683}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E4CF165-9FF0-421D-AF53-13EBF4603A13}" name="Žanri/Filma" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6018BA2D-F8FB-469E-8967-1420EAB2C8CE}" name="Toy Story" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{496E9463-BB61-42E6-841C-B3E7CD1FB583}" name="Antz" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0FD51A33-08DF-4C5F-81EB-07927342E3E1}" name="Toy Story 2" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{992F4742-1ADC-492A-A336-A830C947E95C}" name="Adventures of Rocky and Bullwinkle, The (2000)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A79ACFF6-C739-4586-A1C4-DA5CC7973ED9}" name="Monsters, Inc. (2001)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{87BD6705-E1CE-403E-B334-FB1FDF7F7BD6}" name="Wild, The (2006)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9E4CF165-9FF0-421D-AF53-13EBF4603A13}" name="Žanri/Filma" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{6018BA2D-F8FB-469E-8967-1420EAB2C8CE}" name="Toy Story" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{496E9463-BB61-42E6-841C-B3E7CD1FB583}" name="Antz" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{0FD51A33-08DF-4C5F-81EB-07927342E3E1}" name="Toy Story 2" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{992F4742-1ADC-492A-A336-A830C947E95C}" name="Adventures of Rocky and Bullwinkle, The (2000)" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{A79ACFF6-C739-4586-A1C4-DA5CC7973ED9}" name="Monsters, Inc. (2001)" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{87BD6705-E1CE-403E-B334-FB1FDF7F7BD6}" name="Wild, The (2006)" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A82FBCC-023A-497E-980B-BD5CFF89AC0A}" name="Tabula4" displayName="Tabula4" ref="L2:R7" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A82FBCC-023A-497E-980B-BD5CFF89AC0A}" name="Tabula4" displayName="Tabula4" ref="M2:S7" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D6A02F8E-6F7E-4938-AE0F-A64FC02398EF}" name="Kolonna1"/>
     <tableColumn id="2" xr3:uid="{6CD5F9FB-29EF-4114-B9EA-6DBEBE433F54}" name="Kolonna2"/>
@@ -781,6 +1106,38 @@
     <tableColumn id="7" xr3:uid="{E1134D12-190C-4953-A12D-DBB627F1C247}" name="Kolonna7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12EAE427-D3C2-4BBE-90D1-1D5B76DB3187}" name="Tabula2" displayName="Tabula2" ref="B53:C58" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C5F3F93B-E666-42D0-9CDE-B2A909F4B599}" name="Kolonna1" headerRowDxfId="6" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{23A41B4C-318B-4612-9E35-4A905EE111ED}" name="Kolonna2" headerRowDxfId="7" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC7FBC69-C291-4668-9945-CD55D0C8EBE1}" name="Tabula6" displayName="Tabula6" ref="C16:D22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="C16:D22" xr:uid="{FC7FBC69-C291-4668-9945-CD55D0C8EBE1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E88444B1-1CB9-4DA3-83F7-832D4374AA08}" name="Lietotāja ar ID 67 novērtēšanas metriku aprēķins" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{197D8BAA-C40D-4ABA-98A7-18BB6C06051F}" name="Vērtības" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B1871DF-E081-4B45-842F-6728F5411C10}" name="Tabula1" displayName="Tabula1" ref="B13:C19" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="B13:C19" xr:uid="{0B1871DF-E081-4B45-842F-6728F5411C10}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{812F28AB-DCF2-4B2C-8A9A-9D0503BC0FBD}" name="Lietotāja ar ID 67 novērtēšanas metriku aprēķins" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{19025CA0-234E-43F6-85AF-B0F4F7196991}" name="Vērtības" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1047,74 +1404,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N201"/>
+  <dimension ref="B1:O201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B57"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="43.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="44.21875" customWidth="1"/>
-    <col min="14" max="18" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="44.21875" customWidth="1"/>
+    <col min="15" max="19" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
       <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1128,25 +1482,25 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1160,25 +1514,25 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
       <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1192,25 +1546,25 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1224,25 +1578,25 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1256,62 +1610,62 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" cm="1">
-        <f t="array" ref="B12:G16">LOG10(B3:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" cm="1">
+        <f t="array" ref="C12:H16">LOG10(C3:H7)</f>
         <v>0</v>
       </c>
       <c r="D12" s="1">
@@ -1326,13 +1680,13 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1349,13 +1703,13 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1372,13 +1726,13 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1395,13 +1749,13 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1418,3240 +1772,3308 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
-        <f>B3</f>
-        <v>1</v>
-      </c>
       <c r="C20" s="1">
-        <f>B12</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <f>B3*B12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D20" s="1">
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E20" s="1">
         <f>C3*C12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
         <f>D3</f>
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D21" s="1">
         <f>D12</f>
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E21" s="1">
         <f>D3*D12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D22" s="1">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E22" s="1">
         <f>E3*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
         <f>F3</f>
         <v>1</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D23" s="1">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E23" s="1">
         <f>F3*F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
         <f>G3</f>
         <v>1</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D24" s="1">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E24" s="1">
         <f>G3*G12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f>H12</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f>H3*H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="12">
         <v>19</v>
       </c>
-      <c r="B38" s="12">
+      <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="C38" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="D38" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
         <v>19</v>
       </c>
-      <c r="B39" s="12">
+      <c r="C39" s="12">
         <v>2294</v>
       </c>
-      <c r="C39" s="12">
+      <c r="D39" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
         <v>19</v>
       </c>
-      <c r="B40" s="12">
+      <c r="C40" s="12">
         <v>3114</v>
       </c>
-      <c r="C40" s="12">
+      <c r="D40" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>220</v>
-      </c>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
+        <v>220</v>
+      </c>
+      <c r="C41" s="13">
         <v>1</v>
       </c>
-      <c r="C41" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
-        <v>220</v>
-      </c>
+      <c r="D41" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
+        <v>220</v>
+      </c>
+      <c r="C42" s="13">
         <v>2294</v>
       </c>
-      <c r="C42" s="13">
+      <c r="D42" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
-        <v>220</v>
-      </c>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
+        <v>220</v>
+      </c>
+      <c r="C43" s="13">
         <v>3114</v>
       </c>
-      <c r="C43" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>220</v>
-      </c>
+      <c r="D43" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
+        <v>220</v>
+      </c>
+      <c r="C44" s="13">
         <v>4886</v>
       </c>
-      <c r="C44" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+      <c r="D44" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="13">
         <v>608</v>
       </c>
-      <c r="B45" s="13">
+      <c r="C45" s="13">
         <v>1</v>
       </c>
-      <c r="C45" s="13">
+      <c r="D45" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="13">
         <v>608</v>
       </c>
-      <c r="B46" s="13">
+      <c r="C46" s="13">
         <v>2294</v>
       </c>
-      <c r="C46" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="D46" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="13">
         <v>608</v>
       </c>
-      <c r="B47" s="13">
+      <c r="C47" s="13">
         <v>3114</v>
       </c>
-      <c r="C47" s="13">
+      <c r="D47" s="13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="13">
         <v>608</v>
       </c>
-      <c r="B48" s="13">
+      <c r="C48" s="13">
         <v>4016</v>
       </c>
-      <c r="C48" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+      <c r="D48" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="13">
         <v>608</v>
       </c>
-      <c r="B49" s="13">
+      <c r="C49" s="13">
         <v>4886</v>
       </c>
-      <c r="C49" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="D49" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="C53" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="13">
+      <c r="C54" s="36">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="13">
-        <f>COUNT(A61:A201)</f>
+      <c r="C55" s="36">
+        <f>COUNT(B61:B201)</f>
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="13">
-        <f>B53/B52</f>
+      <c r="C56" s="36">
+        <f>C54/C53</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="13">
-        <f>B53/B54</f>
+      <c r="C57" s="36">
+        <f>C54/C55</f>
         <v>1.4184397163120567E-2</v>
       </c>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="13">
-        <f>(B55*B56*2)/(B55+B56)</f>
+      <c r="C58" s="38">
+        <f>(C56*C57*2)/(C56+C57)</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>220</v>
-      </c>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
+        <v>220</v>
+      </c>
+      <c r="C61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="1">
-        <v>5</v>
-      </c>
       <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
         <v>1230055565</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>220</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
+        <v>220</v>
+      </c>
+      <c r="C62" s="1">
         <v>10</v>
       </c>
-      <c r="C62" s="1">
-        <v>4</v>
-      </c>
       <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
         <v>1230055828</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>220</v>
-      </c>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
+        <v>220</v>
+      </c>
+      <c r="C63" s="1">
         <v>32</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>4.5</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>1230055680</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>220</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
+        <v>220</v>
+      </c>
+      <c r="C64" s="1">
         <v>34</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>4.5</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>1230055796</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>220</v>
-      </c>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
+        <v>220</v>
+      </c>
+      <c r="C65" s="1">
         <v>50</v>
       </c>
-      <c r="C65" s="1">
-        <v>5</v>
-      </c>
       <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
         <v>1230054959</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>220</v>
-      </c>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
+        <v>220</v>
+      </c>
+      <c r="C66" s="1">
         <v>150</v>
       </c>
-      <c r="C66" s="1">
-        <v>5</v>
-      </c>
       <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
         <v>1230055657</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>220</v>
-      </c>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
+        <v>220</v>
+      </c>
+      <c r="C67" s="1">
         <v>165</v>
       </c>
-      <c r="C67" s="1">
-        <v>4</v>
-      </c>
       <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
         <v>1230328016</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>220</v>
-      </c>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
+        <v>220</v>
+      </c>
+      <c r="C68" s="1">
         <v>223</v>
       </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
       <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
         <v>1230055143</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>220</v>
-      </c>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
+        <v>220</v>
+      </c>
+      <c r="C69" s="1">
         <v>260</v>
       </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
       <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
         <v>1230055647</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>220</v>
-      </c>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
+        <v>220</v>
+      </c>
+      <c r="C70" s="1">
         <v>296</v>
       </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
       <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
         <v>1230054991</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>220</v>
-      </c>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
+        <v>220</v>
+      </c>
+      <c r="C71" s="1">
         <v>303</v>
       </c>
-      <c r="C71" s="1">
-        <v>4</v>
-      </c>
       <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
         <v>1241812878</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>220</v>
-      </c>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
+        <v>220</v>
+      </c>
+      <c r="C72" s="1">
         <v>318</v>
       </c>
-      <c r="C72" s="1">
-        <v>5</v>
-      </c>
       <c r="D72" s="1">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
         <v>1230054966</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>220</v>
-      </c>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
+        <v>220</v>
+      </c>
+      <c r="C73" s="1">
         <v>349</v>
       </c>
-      <c r="C73" s="1">
-        <v>4</v>
-      </c>
       <c r="D73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1">
         <v>1230055783</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>220</v>
-      </c>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
+        <v>220</v>
+      </c>
+      <c r="C74" s="1">
         <v>356</v>
       </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
       <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
         <v>1230061657</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>220</v>
-      </c>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
+        <v>220</v>
+      </c>
+      <c r="C75" s="1">
         <v>364</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>4.5</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>1230055763</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>220</v>
-      </c>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
+        <v>220</v>
+      </c>
+      <c r="C76" s="1">
         <v>380</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>4.5</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>1230055682</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>220</v>
-      </c>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
+        <v>220</v>
+      </c>
+      <c r="C77" s="1">
         <v>480</v>
       </c>
-      <c r="C77" s="1">
-        <v>5</v>
-      </c>
       <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
         <v>1230055651</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>220</v>
-      </c>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
+        <v>220</v>
+      </c>
+      <c r="C78" s="1">
         <v>586</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>4.5</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>1230061714</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>220</v>
-      </c>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
+        <v>220</v>
+      </c>
+      <c r="C79" s="1">
         <v>588</v>
       </c>
-      <c r="C79" s="1">
-        <v>5</v>
-      </c>
       <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
         <v>1230055690</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>220</v>
-      </c>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1">
         <v>589</v>
       </c>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
       <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
         <v>1230055442</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>220</v>
-      </c>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
+        <v>220</v>
+      </c>
+      <c r="C81" s="1">
         <v>590</v>
       </c>
-      <c r="C81" s="1">
-        <v>5</v>
-      </c>
       <c r="D81" s="1">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
         <v>1230060212</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>220</v>
-      </c>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
+        <v>220</v>
+      </c>
+      <c r="C82" s="1">
         <v>608</v>
       </c>
-      <c r="C82" s="1">
-        <v>5</v>
-      </c>
       <c r="D82" s="1">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
         <v>1230055695</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>220</v>
-      </c>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1">
         <v>733</v>
       </c>
-      <c r="C83" s="1">
-        <v>4</v>
-      </c>
       <c r="D83" s="1">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
         <v>1230055810</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>220</v>
-      </c>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
+        <v>220</v>
+      </c>
+      <c r="C84" s="1">
         <v>736</v>
       </c>
-      <c r="C84" s="1">
-        <v>4</v>
-      </c>
       <c r="D84" s="1">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1">
         <v>1230055768</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>220</v>
-      </c>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
+        <v>220</v>
+      </c>
+      <c r="C85" s="1">
         <v>780</v>
       </c>
-      <c r="C85" s="1">
-        <v>4</v>
-      </c>
       <c r="D85" s="1">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1">
         <v>1230055664</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>220</v>
-      </c>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
+        <v>220</v>
+      </c>
+      <c r="C86" s="1">
         <v>858</v>
       </c>
-      <c r="C86" s="1">
-        <v>5</v>
-      </c>
       <c r="D86" s="1">
+        <v>5</v>
+      </c>
+      <c r="E86" s="1">
         <v>1230060343</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>220</v>
-      </c>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
+        <v>220</v>
+      </c>
+      <c r="C87" s="1">
         <v>912</v>
       </c>
-      <c r="C87" s="1">
-        <v>5</v>
-      </c>
       <c r="D87" s="1">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
         <v>1230061664</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>220</v>
-      </c>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
+        <v>220</v>
+      </c>
+      <c r="C88" s="1">
         <v>954</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>4.5</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>1230054684</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>220</v>
-      </c>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
+        <v>220</v>
+      </c>
+      <c r="C89" s="1">
         <v>1036</v>
       </c>
-      <c r="C89" s="1">
-        <v>5</v>
-      </c>
       <c r="D89" s="1">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
         <v>1230055449</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>220</v>
-      </c>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
+        <v>220</v>
+      </c>
+      <c r="C90" s="1">
         <v>1193</v>
       </c>
-      <c r="C90" s="1">
-        <v>5</v>
-      </c>
       <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
         <v>1230060289</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>220</v>
-      </c>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
+        <v>220</v>
+      </c>
+      <c r="C91" s="1">
         <v>1196</v>
       </c>
-      <c r="C91" s="1">
-        <v>5</v>
-      </c>
       <c r="D91" s="1">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
         <v>1230055698</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>220</v>
-      </c>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
+        <v>220</v>
+      </c>
+      <c r="C92" s="1">
         <v>1197</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>4.5</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>1230061146</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>220</v>
-      </c>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
+        <v>220</v>
+      </c>
+      <c r="C93" s="1">
         <v>1198</v>
       </c>
-      <c r="C93" s="1">
-        <v>5</v>
-      </c>
       <c r="D93" s="1">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
         <v>1230055455</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>220</v>
-      </c>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
+        <v>220</v>
+      </c>
+      <c r="C94" s="1">
         <v>1200</v>
       </c>
-      <c r="C94" s="1">
-        <v>5</v>
-      </c>
       <c r="D94" s="1">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
         <v>1230061519</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>220</v>
-      </c>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
+        <v>220</v>
+      </c>
+      <c r="C95" s="1">
         <v>1206</v>
       </c>
-      <c r="C95" s="1">
-        <v>5</v>
-      </c>
       <c r="D95" s="1">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
         <v>1230061852</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>220</v>
-      </c>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
+        <v>220</v>
+      </c>
+      <c r="C96" s="1">
         <v>1210</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>4.5</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>1230055670</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>220</v>
-      </c>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
+        <v>220</v>
+      </c>
+      <c r="C97" s="1">
         <v>1213</v>
       </c>
-      <c r="C97" s="1">
-        <v>5</v>
-      </c>
       <c r="D97" s="1">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
         <v>1230061623</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>220</v>
-      </c>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
+        <v>220</v>
+      </c>
+      <c r="C98" s="1">
         <v>1240</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>4.5</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>1230055431</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>220</v>
-      </c>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
+        <v>220</v>
+      </c>
+      <c r="C99" s="1">
         <v>1265</v>
       </c>
-      <c r="C99" s="1">
-        <v>5</v>
-      </c>
       <c r="D99" s="1">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
         <v>1230061458</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>220</v>
-      </c>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
+        <v>220</v>
+      </c>
+      <c r="C100" s="1">
         <v>1270</v>
       </c>
-      <c r="C100" s="1">
-        <v>5</v>
-      </c>
       <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
         <v>1230055726</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>220</v>
-      </c>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
+        <v>220</v>
+      </c>
+      <c r="C101" s="1">
         <v>1291</v>
       </c>
-      <c r="C101" s="1">
-        <v>5</v>
-      </c>
       <c r="D101" s="1">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
         <v>1230061726</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>220</v>
-      </c>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="1">
+        <v>220</v>
+      </c>
+      <c r="C102" s="1">
         <v>1387</v>
       </c>
-      <c r="C102" s="1">
-        <v>5</v>
-      </c>
       <c r="D102" s="1">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
         <v>1230328034</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>220</v>
-      </c>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
+        <v>220</v>
+      </c>
+      <c r="C103" s="1">
         <v>1393</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>4.5</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>1230061691</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>220</v>
-      </c>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
+        <v>220</v>
+      </c>
+      <c r="C104" s="1">
         <v>1527</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>4.5</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>1230060317</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>220</v>
-      </c>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
+        <v>220</v>
+      </c>
+      <c r="C105" s="1">
         <v>1580</v>
       </c>
-      <c r="C105" s="1">
-        <v>5</v>
-      </c>
       <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
         <v>1230055820</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>220</v>
-      </c>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
+        <v>220</v>
+      </c>
+      <c r="C106" s="1">
         <v>1584</v>
       </c>
-      <c r="C106" s="1">
-        <v>5</v>
-      </c>
       <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
         <v>1230061667</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>220</v>
-      </c>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
+        <v>220</v>
+      </c>
+      <c r="C107" s="1">
         <v>1704</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="1">
         <v>4.5</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="1">
         <v>1230061566</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>220</v>
-      </c>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
+        <v>220</v>
+      </c>
+      <c r="C108" s="1">
         <v>1721</v>
       </c>
-      <c r="C108" s="1">
-        <v>5</v>
-      </c>
       <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
         <v>1230055822</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>220</v>
-      </c>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
+        <v>220</v>
+      </c>
+      <c r="C109" s="1">
         <v>1732</v>
       </c>
-      <c r="C109" s="1">
-        <v>5</v>
-      </c>
       <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
         <v>1230055095</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>220</v>
-      </c>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
+        <v>220</v>
+      </c>
+      <c r="C110" s="1">
         <v>1917</v>
       </c>
-      <c r="C110" s="1">
-        <v>4</v>
-      </c>
       <c r="D110" s="1">
+        <v>4</v>
+      </c>
+      <c r="E110" s="1">
         <v>1230061167</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>220</v>
-      </c>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
+        <v>220</v>
+      </c>
+      <c r="C111" s="1">
         <v>2011</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="1">
         <v>4.5</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <v>1230062146</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>220</v>
-      </c>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
+        <v>220</v>
+      </c>
+      <c r="C112" s="1">
         <v>2012</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="1">
         <v>4.5</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="1">
         <v>1230061526</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>220</v>
-      </c>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
+        <v>220</v>
+      </c>
+      <c r="C113" s="1">
         <v>2028</v>
       </c>
-      <c r="C113" s="1">
-        <v>5</v>
-      </c>
       <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
         <v>1230328050</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>220</v>
-      </c>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
+        <v>220</v>
+      </c>
+      <c r="C114" s="1">
         <v>2115</v>
       </c>
-      <c r="C114" s="1">
-        <v>4</v>
-      </c>
       <c r="D114" s="1">
+        <v>4</v>
+      </c>
+      <c r="E114" s="1">
         <v>1230061548</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>220</v>
-      </c>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
+        <v>220</v>
+      </c>
+      <c r="C115" s="1">
         <v>2300</v>
       </c>
-      <c r="C115" s="1">
-        <v>4</v>
-      </c>
       <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
         <v>1230054655</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>220</v>
-      </c>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
+        <v>220</v>
+      </c>
+      <c r="C116" s="1">
         <v>2329</v>
       </c>
-      <c r="C116" s="1">
-        <v>5</v>
-      </c>
       <c r="D116" s="1">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
         <v>1230054954</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>220</v>
-      </c>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
+        <v>220</v>
+      </c>
+      <c r="C117" s="1">
         <v>2355</v>
       </c>
-      <c r="C117" s="1">
-        <v>4</v>
-      </c>
       <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1">
         <v>1230055577</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>220</v>
-      </c>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="1">
+        <v>220</v>
+      </c>
+      <c r="C118" s="1">
         <v>2502</v>
       </c>
-      <c r="C118" s="1">
-        <v>5</v>
-      </c>
       <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
         <v>1230061728</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>220</v>
-      </c>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="1">
+        <v>220</v>
+      </c>
+      <c r="C119" s="1">
         <v>2571</v>
       </c>
-      <c r="C119" s="1">
-        <v>5</v>
-      </c>
       <c r="D119" s="1">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
         <v>1230054916</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>220</v>
-      </c>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="1">
+        <v>220</v>
+      </c>
+      <c r="C120" s="1">
         <v>2640</v>
       </c>
-      <c r="C120" s="1">
-        <v>4</v>
-      </c>
       <c r="D120" s="1">
+        <v>4</v>
+      </c>
+      <c r="E120" s="1">
         <v>1230061837</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>220</v>
-      </c>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
+        <v>220</v>
+      </c>
+      <c r="C121" s="1">
         <v>2692</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>4.5</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="1">
         <v>1230083274</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>220</v>
-      </c>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="1">
+        <v>220</v>
+      </c>
+      <c r="C122" s="1">
         <v>2700</v>
       </c>
-      <c r="C122" s="1">
-        <v>5</v>
-      </c>
       <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1">
         <v>1230061654</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>220</v>
-      </c>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="1">
+        <v>220</v>
+      </c>
+      <c r="C123" s="1">
         <v>2716</v>
       </c>
-      <c r="C123" s="1">
-        <v>5</v>
-      </c>
       <c r="D123" s="1">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
         <v>1230059742</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>220</v>
-      </c>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="1">
+        <v>220</v>
+      </c>
+      <c r="C124" s="1">
         <v>2762</v>
       </c>
-      <c r="C124" s="1">
-        <v>5</v>
-      </c>
       <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
         <v>1230055786</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>220</v>
-      </c>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
+        <v>220</v>
+      </c>
+      <c r="C125" s="1">
         <v>2791</v>
       </c>
-      <c r="C125" s="1">
+      <c r="D125" s="1">
         <v>4.5</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
         <v>1230061743</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>220</v>
-      </c>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
+        <v>220</v>
+      </c>
+      <c r="C126" s="1">
         <v>2795</v>
       </c>
-      <c r="C126" s="1">
-        <v>4</v>
-      </c>
       <c r="D126" s="1">
+        <v>4</v>
+      </c>
+      <c r="E126" s="1">
         <v>1230054675</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>220</v>
-      </c>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
+        <v>220</v>
+      </c>
+      <c r="C127" s="1">
         <v>2947</v>
       </c>
-      <c r="C127" s="1">
-        <v>4</v>
-      </c>
       <c r="D127" s="1">
+        <v>4</v>
+      </c>
+      <c r="E127" s="1">
         <v>1257736388</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>220</v>
-      </c>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="1">
+        <v>220</v>
+      </c>
+      <c r="C128" s="1">
         <v>2985</v>
       </c>
-      <c r="C128" s="1">
-        <v>4</v>
-      </c>
       <c r="D128" s="1">
+        <v>4</v>
+      </c>
+      <c r="E128" s="1">
         <v>1241227389</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>220</v>
-      </c>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="1">
+        <v>220</v>
+      </c>
+      <c r="C129" s="1">
         <v>2997</v>
       </c>
-      <c r="C129" s="1">
-        <v>5</v>
-      </c>
       <c r="D129" s="1">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
         <v>1241812772</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>220</v>
-      </c>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="1">
+        <v>220</v>
+      </c>
+      <c r="C130" s="1">
         <v>3034</v>
       </c>
-      <c r="C130" s="1">
-        <v>5</v>
-      </c>
       <c r="D130" s="1">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1">
         <v>1230751214</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>220</v>
-      </c>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="1">
+        <v>220</v>
+      </c>
+      <c r="C131" s="1">
         <v>3114</v>
       </c>
-      <c r="C131" s="1">
-        <v>5</v>
-      </c>
       <c r="D131" s="1">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
         <v>1230055575</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>220</v>
-      </c>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="1">
+        <v>220</v>
+      </c>
+      <c r="C132" s="1">
         <v>3147</v>
       </c>
-      <c r="C132" s="1">
-        <v>4</v>
-      </c>
       <c r="D132" s="1">
+        <v>4</v>
+      </c>
+      <c r="E132" s="1">
         <v>1230061554</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>220</v>
-      </c>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="1">
+        <v>220</v>
+      </c>
+      <c r="C133" s="1">
         <v>3159</v>
       </c>
-      <c r="C133" s="1">
-        <v>4</v>
-      </c>
       <c r="D133" s="1">
+        <v>4</v>
+      </c>
+      <c r="E133" s="1">
         <v>1238532906</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>220</v>
-      </c>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
+        <v>220</v>
+      </c>
+      <c r="C134" s="1">
         <v>3421</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>4.5</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="1">
         <v>1230069662</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>220</v>
-      </c>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="1">
+        <v>220</v>
+      </c>
+      <c r="C135" s="1">
         <v>3510</v>
       </c>
-      <c r="C135" s="1">
-        <v>4</v>
-      </c>
       <c r="D135" s="1">
+        <v>4</v>
+      </c>
+      <c r="E135" s="1">
         <v>1230054596</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>220</v>
-      </c>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="1">
+        <v>220</v>
+      </c>
+      <c r="C136" s="1">
         <v>3555</v>
       </c>
-      <c r="C136" s="1">
-        <v>4</v>
-      </c>
       <c r="D136" s="1">
+        <v>4</v>
+      </c>
+      <c r="E136" s="1">
         <v>1230054638</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>220</v>
-      </c>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="1">
+        <v>220</v>
+      </c>
+      <c r="C137" s="1">
         <v>3671</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="1">
         <v>4.5</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="1">
         <v>1230055298</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>220</v>
-      </c>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="1">
+        <v>220</v>
+      </c>
+      <c r="C138" s="1">
         <v>3753</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>4.5</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E138" s="1">
         <v>1241812861</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>220</v>
-      </c>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="1">
+        <v>220</v>
+      </c>
+      <c r="C139" s="1">
         <v>3793</v>
       </c>
-      <c r="C139" s="1">
-        <v>5</v>
-      </c>
       <c r="D139" s="1">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1">
         <v>1230061577</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>220</v>
-      </c>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="1">
+        <v>220</v>
+      </c>
+      <c r="C140" s="1">
         <v>3948</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="1">
         <v>4.5</v>
       </c>
-      <c r="D140" s="1">
+      <c r="E140" s="1">
         <v>1230061575</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>220</v>
-      </c>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="1">
+        <v>220</v>
+      </c>
+      <c r="C141" s="1">
         <v>3996</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="1">
         <v>4.5</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="1">
         <v>1230060063</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>220</v>
-      </c>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="1">
+        <v>220</v>
+      </c>
+      <c r="C142" s="1">
         <v>4011</v>
       </c>
-      <c r="C142" s="1">
-        <v>4</v>
-      </c>
       <c r="D142" s="1">
+        <v>4</v>
+      </c>
+      <c r="E142" s="1">
         <v>1230062150</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>220</v>
-      </c>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="1">
+        <v>220</v>
+      </c>
+      <c r="C143" s="1">
         <v>4022</v>
       </c>
-      <c r="C143" s="1">
-        <v>4</v>
-      </c>
       <c r="D143" s="1">
+        <v>4</v>
+      </c>
+      <c r="E143" s="1">
         <v>1230060233</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>220</v>
-      </c>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="1">
+        <v>220</v>
+      </c>
+      <c r="C144" s="1">
         <v>4027</v>
       </c>
-      <c r="C144" s="1">
-        <v>5</v>
-      </c>
       <c r="D144" s="1">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1">
         <v>1230060173</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>220</v>
-      </c>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="1">
+        <v>220</v>
+      </c>
+      <c r="C145" s="1">
         <v>4226</v>
       </c>
-      <c r="C145" s="1">
-        <v>5</v>
-      </c>
       <c r="D145" s="1">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1">
         <v>1230054980</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>220</v>
-      </c>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" s="1">
+        <v>220</v>
+      </c>
+      <c r="C146" s="1">
         <v>4306</v>
       </c>
-      <c r="C146" s="1">
-        <v>5</v>
-      </c>
       <c r="D146" s="1">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1">
         <v>1230060118</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>220</v>
-      </c>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="1">
+        <v>220</v>
+      </c>
+      <c r="C147" s="1">
         <v>4499</v>
       </c>
-      <c r="C147" s="1">
-        <v>4</v>
-      </c>
       <c r="D147" s="1">
+        <v>4</v>
+      </c>
+      <c r="E147" s="1">
         <v>1230054768</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>220</v>
-      </c>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="1">
+        <v>220</v>
+      </c>
+      <c r="C148" s="1">
         <v>4545</v>
       </c>
-      <c r="C148" s="1">
+      <c r="D148" s="1">
         <v>4.5</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="1">
         <v>1244152229</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>220</v>
-      </c>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
+        <v>220</v>
+      </c>
+      <c r="C149" s="1">
         <v>4623</v>
       </c>
-      <c r="C149" s="1">
+      <c r="D149" s="1">
         <v>4.5</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="1">
         <v>1241812870</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>220</v>
-      </c>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="1">
+        <v>220</v>
+      </c>
+      <c r="C150" s="1">
         <v>4886</v>
       </c>
-      <c r="C150" s="1">
-        <v>4</v>
-      </c>
       <c r="D150" s="1">
+        <v>4</v>
+      </c>
+      <c r="E150" s="1">
         <v>1230055556</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>220</v>
-      </c>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" s="1">
+        <v>220</v>
+      </c>
+      <c r="C151" s="1">
         <v>4896</v>
       </c>
-      <c r="C151" s="1">
-        <v>5</v>
-      </c>
       <c r="D151" s="1">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
         <v>1230060329</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>220</v>
-      </c>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="1">
+        <v>220</v>
+      </c>
+      <c r="C152" s="1">
         <v>4954</v>
       </c>
-      <c r="C152" s="1">
+      <c r="D152" s="1">
         <v>4.5</v>
       </c>
-      <c r="D152" s="1">
+      <c r="E152" s="1">
         <v>1230055125</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>220</v>
-      </c>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
+        <v>220</v>
+      </c>
+      <c r="C153" s="1">
         <v>5218</v>
       </c>
-      <c r="C153" s="1">
-        <v>5</v>
-      </c>
       <c r="D153" s="1">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1">
         <v>1230751297</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>220</v>
-      </c>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
+        <v>220</v>
+      </c>
+      <c r="C154" s="1">
         <v>5349</v>
       </c>
-      <c r="C154" s="1">
+      <c r="D154" s="1">
         <v>4.5</v>
       </c>
-      <c r="D154" s="1">
+      <c r="E154" s="1">
         <v>1230059732</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>220</v>
-      </c>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="1">
+        <v>220</v>
+      </c>
+      <c r="C155" s="1">
         <v>5378</v>
       </c>
-      <c r="C155" s="1">
-        <v>4</v>
-      </c>
       <c r="D155" s="1">
+        <v>4</v>
+      </c>
+      <c r="E155" s="1">
         <v>1230060158</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>220</v>
-      </c>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="1">
+        <v>220</v>
+      </c>
+      <c r="C156" s="1">
         <v>5418</v>
       </c>
-      <c r="C156" s="1">
-        <v>4</v>
-      </c>
       <c r="D156" s="1">
+        <v>4</v>
+      </c>
+      <c r="E156" s="1">
         <v>1230060242</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>220</v>
-      </c>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="1">
+        <v>220</v>
+      </c>
+      <c r="C157" s="1">
         <v>5464</v>
       </c>
-      <c r="C157" s="1">
+      <c r="D157" s="1">
         <v>4.5</v>
       </c>
-      <c r="D157" s="1">
+      <c r="E157" s="1">
         <v>1241227503</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>220</v>
-      </c>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
+        <v>220</v>
+      </c>
+      <c r="C158" s="1">
         <v>5816</v>
       </c>
-      <c r="C158" s="1">
+      <c r="D158" s="1">
         <v>4.5</v>
       </c>
-      <c r="D158" s="1">
+      <c r="E158" s="1">
         <v>1230061193</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>220</v>
-      </c>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="1">
+        <v>220</v>
+      </c>
+      <c r="C159" s="1">
         <v>5952</v>
       </c>
-      <c r="C159" s="1">
+      <c r="D159" s="1">
         <v>4.5</v>
       </c>
-      <c r="D159" s="1">
+      <c r="E159" s="1">
         <v>1230059774</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>220</v>
-      </c>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="1">
+        <v>220</v>
+      </c>
+      <c r="C160" s="1">
         <v>5989</v>
       </c>
-      <c r="C160" s="1">
-        <v>4</v>
-      </c>
       <c r="D160" s="1">
+        <v>4</v>
+      </c>
+      <c r="E160" s="1">
         <v>1230060280</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>220</v>
-      </c>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
+        <v>220</v>
+      </c>
+      <c r="C161" s="1">
         <v>6333</v>
       </c>
-      <c r="C161" s="1">
-        <v>5</v>
-      </c>
       <c r="D161" s="1">
+        <v>5</v>
+      </c>
+      <c r="E161" s="1">
         <v>1230060111</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>220</v>
-      </c>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
+        <v>220</v>
+      </c>
+      <c r="C162" s="1">
         <v>6365</v>
       </c>
-      <c r="C162" s="1">
+      <c r="D162" s="1">
         <v>4.5</v>
       </c>
-      <c r="D162" s="1">
+      <c r="E162" s="1">
         <v>1230061442</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>220</v>
-      </c>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
+        <v>220</v>
+      </c>
+      <c r="C163" s="1">
         <v>6377</v>
       </c>
-      <c r="C163" s="1">
-        <v>5</v>
-      </c>
       <c r="D163" s="1">
+        <v>5</v>
+      </c>
+      <c r="E163" s="1">
         <v>1230055562</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>220</v>
-      </c>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
+        <v>220</v>
+      </c>
+      <c r="C164" s="1">
         <v>6539</v>
       </c>
-      <c r="C164" s="1">
-        <v>5</v>
-      </c>
       <c r="D164" s="1">
+        <v>5</v>
+      </c>
+      <c r="E164" s="1">
         <v>1230055569</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>220</v>
-      </c>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
+        <v>220</v>
+      </c>
+      <c r="C165" s="1">
         <v>6874</v>
       </c>
-      <c r="C165" s="1">
+      <c r="D165" s="1">
         <v>4.5</v>
       </c>
-      <c r="D165" s="1">
+      <c r="E165" s="1">
         <v>1244606128</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>220</v>
-      </c>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="1">
+        <v>220</v>
+      </c>
+      <c r="C166" s="1">
         <v>6934</v>
       </c>
-      <c r="C166" s="1">
-        <v>4</v>
-      </c>
       <c r="D166" s="1">
+        <v>4</v>
+      </c>
+      <c r="E166" s="1">
         <v>1230061447</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>220</v>
-      </c>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="1">
+        <v>220</v>
+      </c>
+      <c r="C167" s="1">
         <v>7147</v>
       </c>
-      <c r="C167" s="1">
-        <v>5</v>
-      </c>
       <c r="D167" s="1">
+        <v>5</v>
+      </c>
+      <c r="E167" s="1">
         <v>1230061753</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>220</v>
-      </c>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" s="1">
+        <v>220</v>
+      </c>
+      <c r="C168" s="1">
         <v>7153</v>
       </c>
-      <c r="C168" s="1">
+      <c r="D168" s="1">
         <v>4.5</v>
       </c>
-      <c r="D168" s="1">
+      <c r="E168" s="1">
         <v>1230060282</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>220</v>
-      </c>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="1">
+        <v>220</v>
+      </c>
+      <c r="C169" s="1">
         <v>7438</v>
       </c>
-      <c r="C169" s="1">
-        <v>4</v>
-      </c>
       <c r="D169" s="1">
+        <v>4</v>
+      </c>
+      <c r="E169" s="1">
         <v>1230061392</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>220</v>
-      </c>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="1">
+        <v>220</v>
+      </c>
+      <c r="C170" s="1">
         <v>8360</v>
       </c>
-      <c r="C170" s="1">
-        <v>5</v>
-      </c>
       <c r="D170" s="1">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1">
         <v>1230751236</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>220</v>
-      </c>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="1">
+        <v>220</v>
+      </c>
+      <c r="C171" s="1">
         <v>8368</v>
       </c>
-      <c r="C171" s="1">
+      <c r="D171" s="1">
         <v>4.5</v>
       </c>
-      <c r="D171" s="1">
+      <c r="E171" s="1">
         <v>1230061640</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>220</v>
-      </c>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
+        <v>220</v>
+      </c>
+      <c r="C172" s="1">
         <v>8464</v>
       </c>
-      <c r="C172" s="1">
-        <v>4</v>
-      </c>
       <c r="D172" s="1">
+        <v>4</v>
+      </c>
+      <c r="E172" s="1">
         <v>1241812921</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>220</v>
-      </c>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
+        <v>220</v>
+      </c>
+      <c r="C173" s="1">
         <v>8636</v>
       </c>
-      <c r="C173" s="1">
+      <c r="D173" s="1">
         <v>4.5</v>
       </c>
-      <c r="D173" s="1">
+      <c r="E173" s="1">
         <v>1230060134</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>220</v>
-      </c>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="1">
+        <v>220</v>
+      </c>
+      <c r="C174" s="1">
         <v>8644</v>
       </c>
-      <c r="C174" s="1">
-        <v>4</v>
-      </c>
       <c r="D174" s="1">
+        <v>4</v>
+      </c>
+      <c r="E174" s="1">
         <v>1237947739</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>220</v>
-      </c>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="1">
+        <v>220</v>
+      </c>
+      <c r="C175" s="1">
         <v>8665</v>
       </c>
-      <c r="C175" s="1">
-        <v>4</v>
-      </c>
       <c r="D175" s="1">
+        <v>4</v>
+      </c>
+      <c r="E175" s="1">
         <v>1230060248</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>220</v>
-      </c>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="1">
+        <v>220</v>
+      </c>
+      <c r="C176" s="1">
         <v>8910</v>
       </c>
-      <c r="C176" s="1">
-        <v>4</v>
-      </c>
       <c r="D176" s="1">
+        <v>4</v>
+      </c>
+      <c r="E176" s="1">
         <v>1241812782</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>220</v>
-      </c>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="1">
+        <v>220</v>
+      </c>
+      <c r="C177" s="1">
         <v>8961</v>
       </c>
-      <c r="C177" s="1">
+      <c r="D177" s="1">
         <v>4.5</v>
       </c>
-      <c r="D177" s="1">
+      <c r="E177" s="1">
         <v>1259074255</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>220</v>
-      </c>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="1">
+        <v>220</v>
+      </c>
+      <c r="C178" s="1">
         <v>33493</v>
       </c>
-      <c r="C178" s="1">
-        <v>4</v>
-      </c>
       <c r="D178" s="1">
+        <v>4</v>
+      </c>
+      <c r="E178" s="1">
         <v>1230060121</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>220</v>
-      </c>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="1">
+        <v>220</v>
+      </c>
+      <c r="C179" s="1">
         <v>33794</v>
       </c>
-      <c r="C179" s="1">
+      <c r="D179" s="1">
         <v>4.5</v>
       </c>
-      <c r="D179" s="1">
+      <c r="E179" s="1">
         <v>1230060077</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>220</v>
-      </c>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="1">
+        <v>220</v>
+      </c>
+      <c r="C180" s="1">
         <v>40815</v>
       </c>
-      <c r="C180" s="1">
-        <v>4</v>
-      </c>
       <c r="D180" s="1">
+        <v>4</v>
+      </c>
+      <c r="E180" s="1">
         <v>1230061757</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>220</v>
-      </c>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
+        <v>220</v>
+      </c>
+      <c r="C181" s="1">
         <v>45499</v>
       </c>
-      <c r="C181" s="1">
-        <v>4</v>
-      </c>
       <c r="D181" s="1">
+        <v>4</v>
+      </c>
+      <c r="E181" s="1">
         <v>1241812849</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>220</v>
-      </c>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="1">
+        <v>220</v>
+      </c>
+      <c r="C182" s="1">
         <v>45517</v>
       </c>
-      <c r="C182" s="1">
-        <v>5</v>
-      </c>
       <c r="D182" s="1">
+        <v>5</v>
+      </c>
+      <c r="E182" s="1">
         <v>1230055580</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>220</v>
-      </c>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="1">
+        <v>220</v>
+      </c>
+      <c r="C183" s="1">
         <v>45722</v>
       </c>
-      <c r="C183" s="1">
-        <v>4</v>
-      </c>
       <c r="D183" s="1">
+        <v>4</v>
+      </c>
+      <c r="E183" s="1">
         <v>1230060148</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>220</v>
-      </c>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="1">
+        <v>220</v>
+      </c>
+      <c r="C184" s="1">
         <v>48385</v>
       </c>
-      <c r="C184" s="1">
-        <v>4</v>
-      </c>
       <c r="D184" s="1">
+        <v>4</v>
+      </c>
+      <c r="E184" s="1">
         <v>1230060301</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>220</v>
-      </c>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="1">
+        <v>220</v>
+      </c>
+      <c r="C185" s="1">
         <v>48774</v>
       </c>
-      <c r="C185" s="1">
-        <v>5</v>
-      </c>
       <c r="D185" s="1">
+        <v>5</v>
+      </c>
+      <c r="E185" s="1">
         <v>1236500511</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>220</v>
-      </c>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="1">
+        <v>220</v>
+      </c>
+      <c r="C186" s="1">
         <v>49272</v>
       </c>
-      <c r="C186" s="1">
-        <v>4</v>
-      </c>
       <c r="D186" s="1">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1">
         <v>1230060209</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>220</v>
-      </c>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
+        <v>220</v>
+      </c>
+      <c r="C187" s="1">
         <v>50872</v>
       </c>
-      <c r="C187" s="1">
+      <c r="D187" s="1">
         <v>4.5</v>
       </c>
-      <c r="D187" s="1">
+      <c r="E187" s="1">
         <v>1230054818</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>220</v>
-      </c>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="1">
+        <v>220</v>
+      </c>
+      <c r="C188" s="1">
         <v>51662</v>
       </c>
-      <c r="C188" s="1">
+      <c r="D188" s="1">
         <v>4.5</v>
       </c>
-      <c r="D188" s="1">
+      <c r="E188" s="1">
         <v>1230060255</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>220</v>
-      </c>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="1">
+        <v>220</v>
+      </c>
+      <c r="C189" s="1">
         <v>54272</v>
       </c>
-      <c r="C189" s="1">
-        <v>4</v>
-      </c>
       <c r="D189" s="1">
+        <v>4</v>
+      </c>
+      <c r="E189" s="1">
         <v>1230061487</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>220</v>
-      </c>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="1">
+        <v>220</v>
+      </c>
+      <c r="C190" s="1">
         <v>55363</v>
       </c>
-      <c r="C190" s="1">
-        <v>5</v>
-      </c>
       <c r="D190" s="1">
+        <v>5</v>
+      </c>
+      <c r="E190" s="1">
         <v>1246644370</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>220</v>
-      </c>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="1">
+        <v>220</v>
+      </c>
+      <c r="C191" s="1">
         <v>55820</v>
       </c>
-      <c r="C191" s="1">
+      <c r="D191" s="1">
         <v>4.5</v>
       </c>
-      <c r="D191" s="1">
+      <c r="E191" s="1">
         <v>1230060264</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>220</v>
-      </c>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="1">
+        <v>220</v>
+      </c>
+      <c r="C192" s="1">
         <v>57368</v>
       </c>
-      <c r="C192" s="1">
-        <v>4</v>
-      </c>
       <c r="D192" s="1">
+        <v>4</v>
+      </c>
+      <c r="E192" s="1">
         <v>1238532883</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <v>220</v>
-      </c>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="1">
+        <v>220</v>
+      </c>
+      <c r="C193" s="1">
         <v>58025</v>
       </c>
-      <c r="C193" s="1">
-        <v>4</v>
-      </c>
       <c r="D193" s="1">
+        <v>4</v>
+      </c>
+      <c r="E193" s="1">
         <v>1237947711</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <v>220</v>
-      </c>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="1">
+        <v>220</v>
+      </c>
+      <c r="C194" s="1">
         <v>58559</v>
       </c>
-      <c r="C194" s="1">
-        <v>5</v>
-      </c>
       <c r="D194" s="1">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1">
         <v>1230750604</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <v>220</v>
-      </c>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="1">
+        <v>220</v>
+      </c>
+      <c r="C195" s="1">
         <v>59258</v>
       </c>
-      <c r="C195" s="1">
+      <c r="D195" s="1">
         <v>4.5</v>
       </c>
-      <c r="D195" s="1">
+      <c r="E195" s="1">
         <v>1230771803</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>220</v>
-      </c>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="1">
+        <v>220</v>
+      </c>
+      <c r="C196" s="1">
         <v>59315</v>
       </c>
-      <c r="C196" s="1">
+      <c r="D196" s="1">
         <v>4.5</v>
       </c>
-      <c r="D196" s="1">
+      <c r="E196" s="1">
         <v>1230750719</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>220</v>
-      </c>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="1">
+        <v>220</v>
+      </c>
+      <c r="C197" s="1">
         <v>59615</v>
       </c>
-      <c r="C197" s="1">
-        <v>4</v>
-      </c>
       <c r="D197" s="1">
+        <v>4</v>
+      </c>
+      <c r="E197" s="1">
         <v>1230061886</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>220</v>
-      </c>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" s="1">
+        <v>220</v>
+      </c>
+      <c r="C198" s="1">
         <v>60069</v>
       </c>
-      <c r="C198" s="1">
-        <v>5</v>
-      </c>
       <c r="D198" s="1">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1">
         <v>1230055590</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>220</v>
-      </c>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="1">
+        <v>220</v>
+      </c>
+      <c r="C199" s="1">
         <v>62344</v>
       </c>
-      <c r="C199" s="1">
-        <v>4</v>
-      </c>
       <c r="D199" s="1">
+        <v>4</v>
+      </c>
+      <c r="E199" s="1">
         <v>1237947788</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>220</v>
-      </c>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="1">
+        <v>220</v>
+      </c>
+      <c r="C200" s="1">
         <v>62374</v>
       </c>
-      <c r="C200" s="1">
-        <v>4</v>
-      </c>
       <c r="D200" s="1">
+        <v>4</v>
+      </c>
+      <c r="E200" s="1">
         <v>1235449030</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>220</v>
-      </c>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" s="1">
+        <v>220</v>
+      </c>
+      <c r="C201" s="1">
         <v>68358</v>
       </c>
-      <c r="C201" s="1">
-        <v>5</v>
-      </c>
       <c r="D201" s="1">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
         <v>1246137908</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ECAB08-0105-4C4B-8D58-1D1C6468A525}">
-  <dimension ref="A2:H56"/>
+  <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2329</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D4" s="16">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D4" s="16">
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="E4">
-        <f>C4-D4</f>
+      <c r="F4">
+        <f>D4-E4</f>
         <v>1.3899999999999997</v>
       </c>
-      <c r="F4">
-        <f>ABS(E4)</f>
+      <c r="G4">
+        <f>ABS(F4)</f>
         <v>1.3899999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>G4^2</f>
+        <v>1.932099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>2959</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="16">
+      <c r="D5" s="16">
         <v>4.37</v>
       </c>
-      <c r="D5" s="16">
+      <c r="E5" s="16">
         <v>4.5</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E13" si="0">C5-D5</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F13" si="0">D5-E5</f>
         <v>-0.12999999999999989</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F13" si="1">ABS(E5)</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="1">ABS(F5)</f>
         <v>0.12999999999999989</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" ref="H5:H13" si="2">G5^2</f>
+        <v>1.6899999999999971E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>68157</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="16">
+      <c r="D6" s="16">
         <v>4.3600000000000003</v>
       </c>
-      <c r="D6" s="16">
-        <v>4</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0.36000000000000032</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>0.36000000000000032</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.12960000000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>2571</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16">
+      <c r="D7" s="16">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E7" s="16">
         <v>4.5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>-0.15000000000000036</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>0.15000000000000036</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2.2500000000000107E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>60069</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D8" s="16">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D8" s="16">
+      <c r="E8" s="16">
         <v>3.5</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>0.76999999999999957</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>0.76999999999999957</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.59289999999999932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>4993</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="16">
+      <c r="D9" s="16">
         <v>4.25</v>
       </c>
-      <c r="D9" s="16">
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2858</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="16">
+      <c r="D10" s="16">
         <v>4.25</v>
       </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>79132</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16">
+      <c r="D11" s="16">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D11" s="16">
-        <v>4</v>
-      </c>
-      <c r="E11">
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0.23000000000000043</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>0.23000000000000043</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>5.2900000000000197E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>5952</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="16">
+      <c r="D12" s="16">
         <v>4.21</v>
       </c>
-      <c r="D12" s="16">
+      <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>2.21</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>4.8841000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>4306</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="16">
+      <c r="D13" s="16">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D13" s="16">
+      <c r="E13" s="16">
         <v>3.5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>0.65000000000000036</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>0.65000000000000036</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.42250000000000049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="E14" t="s">
+      <c r="B14" s="11"/>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="F14">
-        <f>AVERAGE(F4:F13)</f>
+      <c r="G14">
+        <f>AVERAGE(G4:G13)</f>
         <v>0.83900000000000008</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <f>AVERAGE(H4:H13)</f>
+        <v>1.3178500000000002</v>
+      </c>
+      <c r="I14" t="s">
         <v>60</v>
       </c>
-      <c r="H14">
-        <f>F14^2</f>
-        <v>0.70392100000000013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="J14">
+        <f>SQRT(H14)</f>
+        <v>1.1479764805953125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="D16" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="18">
+      <c r="D17" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="18">
+      <c r="D18" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <f>COUNT(A26:A56)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1">
-        <f>C18/C17</f>
+      <c r="D20" s="1">
+        <f>D18/D17</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="1">
-        <f>C18/C19</f>
+      <c r="D21" s="1">
+        <f>D18/D19</f>
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1">
-        <f>(2*C20*C21)/(C20+C21)</f>
+      <c r="D22" s="8">
+        <f>(2*D20*D21)/(D20+D21)</f>
         <v>0.34146341463414631</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>67</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>293</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
       <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
         <v>1501273898</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>67</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>296</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4.5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1501273753</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>67</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>318</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4.5</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1501274024</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>67</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>356</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4.5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1501274064</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>67</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>589</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3.5</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1501273841</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>67</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1036</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
       <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
         <v>1501273849</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>67</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1270</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>4.5</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1501273836</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>67</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1291</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.5</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1501274102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>67</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1527</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
       <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
         <v>1501273646</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>67</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1580</v>
       </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
       <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
         <v>1501273559</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>67</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2011</v>
       </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
       <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
         <v>1501274293</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>67</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2012</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>3.5</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1501274294</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>67</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>2028</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>4.5</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1501273553</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>67</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2571</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>4.5</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1501273541</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>67</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>2858</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
       <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
         <v>1501273550</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>67</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>2959</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>4.5</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1501273544</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>67</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>4011</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>4.5</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1501273607</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>67</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>4306</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>3.5</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1501273883</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>67</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>4886</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>4.5</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1501273889</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>67</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>5574</v>
       </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
       <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
         <v>1501273679</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>67</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>5628</v>
       </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
       <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
         <v>1501273685</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>67</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>6377</v>
       </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
       <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
         <v>1501273885</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>67</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>6539</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>4.5</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1501273908</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>67</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>8604</v>
       </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
       <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
         <v>1501273663</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>8605</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>4.5</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1501273672</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>67</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>27193</v>
       </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
       <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
         <v>1501273671</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>67</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>60069</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>3.5</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1501273959</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>67</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>68157</v>
       </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
       <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
         <v>1501273924</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>67</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>79132</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
       <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
         <v>1501273757</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>67</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>99114</v>
       </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
       <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
         <v>1501274191</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>67</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>152081</v>
       </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
       <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
         <v>1501274150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6942D0E-2EF8-49EE-AA26-F57157487651}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
@@ -4664,14 +5086,17 @@
       <c r="D2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>318</v>
       </c>
@@ -4692,8 +5117,12 @@
         <f>ABS(F3)</f>
         <v>0.94588599999999978</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f>G3^2</f>
+        <v>0.89470032499599961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>608</v>
       </c>
@@ -4714,8 +5143,12 @@
         <f t="shared" ref="G4:G11" si="1">ABS(F4)</f>
         <v>0.84828899999999985</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" ref="I4:I11" si="2">G4^2</f>
+        <v>0.71959422752099977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>232</v>
       </c>
@@ -4736,8 +5169,12 @@
         <f t="shared" si="1"/>
         <v>0.50039500000000015</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.25039515602500012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>265</v>
       </c>
@@ -4758,8 +5195,12 @@
         <f t="shared" si="1"/>
         <v>0.38388899999999992</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.14737076432099994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>349</v>
       </c>
@@ -4780,8 +5221,12 @@
         <f t="shared" si="1"/>
         <v>0.36961399999999989</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.13661450899599992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>300</v>
       </c>
@@ -4802,8 +5247,12 @@
         <f t="shared" si="1"/>
         <v>0.36389700000000014</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.1324210266090001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>110</v>
       </c>
@@ -4824,8 +5273,12 @@
         <f t="shared" si="1"/>
         <v>0.85582100000000016</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.73242958404100034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>592</v>
       </c>
@@ -4846,8 +5299,12 @@
         <f t="shared" si="1"/>
         <v>8.2520000000000149E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>6.8095504000000246E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>457</v>
       </c>
@@ -4868,8 +5325,12 @@
         <f t="shared" si="1"/>
         <v>0.94562999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.89421609689999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>34</v>
       </c>
@@ -4877,77 +5338,85 @@
         <f>AVERAGE(G3:G11)</f>
         <v>0.58843788888888882</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <f>AVERAGE(I3:I11)</f>
+        <v>0.4349501377565555</v>
+      </c>
+      <c r="K12" t="s">
         <v>60</v>
       </c>
-      <c r="J12">
-        <f>G12^2</f>
-        <v>0.34625914908001226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="L12">
+        <f>SQRT(I12)</f>
+        <v>0.65950749636115247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="30">
         <f>COUNT(A3:A11)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="29">
         <f>C15/C14</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="29">
         <f>C15/C16</f>
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="34">
         <f>(2*C17*C18)/(C17+C18)</f>
         <v>0.18750000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Parbaude.xlsx
+++ b/Parbaude.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE30ABE-5DFB-4875-A488-D0BFDFEAC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9411025-B111-4AE9-892E-F71B479FCB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4178,7 +4178,7 @@
   <dimension ref="A2:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
